--- a/Kmeans_percentual.xlsx
+++ b/Kmeans_percentual.xlsx
@@ -545,67 +545,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>73.28</v>
       </c>
       <c r="C2" t="n">
-        <v>21.47</v>
+        <v>58.24</v>
       </c>
       <c r="D2" t="n">
-        <v>68.22</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>66.45</v>
+        <v>86.47</v>
       </c>
       <c r="F2" t="n">
-        <v>91.33</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>36.64</v>
+        <v>74.66</v>
       </c>
       <c r="H2" t="n">
-        <v>95.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>97.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.72</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>96.59</v>
+        <v>0.33</v>
       </c>
       <c r="L2" t="n">
-        <v>93.43000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>97.18000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>90.09</v>
+        <v>67.95999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>90.73999999999999</v>
+        <v>64.28</v>
       </c>
       <c r="P2" t="n">
+        <v>64.28</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>90.15000000000001</v>
       </c>
-      <c r="Q2" t="n">
-        <v>91.66</v>
-      </c>
-      <c r="R2" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>68.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="U2" t="n">
-        <v>20.81</v>
+        <v>33.62</v>
       </c>
       <c r="V2" t="n">
-        <v>93.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -613,58 +613,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>68.88</v>
+        <v>78</v>
       </c>
       <c r="C3" t="n">
         <v>21.47</v>
       </c>
       <c r="D3" t="n">
-        <v>67.37</v>
+        <v>68.22</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>66.45</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>91.33</v>
       </c>
       <c r="G3" t="n">
-        <v>79.31999999999999</v>
+        <v>36.64</v>
       </c>
       <c r="H3" t="n">
-        <v>90.81</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>95.47</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>94.09</v>
+        <v>96.72</v>
       </c>
       <c r="K3" t="n">
-        <v>93.7</v>
+        <v>96.59</v>
       </c>
       <c r="L3" t="n">
-        <v>78.27</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>94.42</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>90.09</v>
       </c>
       <c r="O3" t="n">
-        <v>22.98</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>0.39</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.91</v>
+        <v>91.66</v>
       </c>
       <c r="R3" t="n">
-        <v>95.54000000000001</v>
+        <v>96.78</v>
       </c>
       <c r="S3" t="n">
-        <v>90.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>68.29000000000001</v>
@@ -673,7 +673,7 @@
         <v>20.81</v>
       </c>
       <c r="V3" t="n">
-        <v>89.89</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="4">
@@ -681,67 +681,67 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>73.28</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>58.24</v>
+        <v>61.33</v>
       </c>
       <c r="D4" t="n">
-        <v>75.70999999999999</v>
+        <v>77.22</v>
       </c>
       <c r="E4" t="n">
-        <v>86.47</v>
+        <v>90.22</v>
       </c>
       <c r="F4" t="n">
-        <v>79.51000000000001</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>74.66</v>
+        <v>36.64</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>88.25</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>92.06</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.33</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>71.90000000000001</v>
+        <v>85.88</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07000000000000001</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>67.95999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="O4" t="n">
-        <v>64.28</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>64.28</v>
+        <v>84.77</v>
       </c>
       <c r="Q4" t="n">
-        <v>71.95999999999999</v>
+        <v>83.39</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.55</v>
       </c>
       <c r="S4" t="n">
         <v>90.15000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>33.62</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="5">
@@ -749,67 +749,67 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>84.64</v>
+        <v>68.88</v>
       </c>
       <c r="C5" t="n">
-        <v>30.33</v>
+        <v>21.47</v>
       </c>
       <c r="D5" t="n">
-        <v>72.36</v>
+        <v>67.37</v>
       </c>
       <c r="E5" t="n">
-        <v>90.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>70.52</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>97.5</v>
+        <v>90.81</v>
       </c>
       <c r="I5" t="n">
-        <v>97.5</v>
+        <v>95.47</v>
       </c>
       <c r="J5" t="n">
-        <v>97.95999999999999</v>
+        <v>94.09</v>
       </c>
       <c r="K5" t="n">
-        <v>96.91</v>
+        <v>93.7</v>
       </c>
       <c r="L5" t="n">
-        <v>98.16</v>
+        <v>78.27</v>
       </c>
       <c r="M5" t="n">
-        <v>97.56999999999999</v>
+        <v>94.42</v>
       </c>
       <c r="N5" t="n">
-        <v>97.77</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>97.23999999999999</v>
+        <v>22.98</v>
       </c>
       <c r="P5" t="n">
-        <v>97.44</v>
+        <v>0.39</v>
       </c>
       <c r="Q5" t="n">
-        <v>97.5</v>
+        <v>66.91</v>
       </c>
       <c r="R5" t="n">
-        <v>97.31</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>23.24</v>
+        <v>20.81</v>
       </c>
       <c r="V5" t="n">
-        <v>98.42</v>
+        <v>89.89</v>
       </c>
     </row>
     <row r="6">
@@ -817,67 +817,67 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80.43000000000001</v>
+        <v>84.64</v>
       </c>
       <c r="C6" t="n">
-        <v>61.33</v>
+        <v>30.33</v>
       </c>
       <c r="D6" t="n">
-        <v>77.22</v>
+        <v>72.36</v>
       </c>
       <c r="E6" t="n">
-        <v>90.22</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>94.29000000000001</v>
+        <v>91</v>
       </c>
       <c r="G6" t="n">
-        <v>36.64</v>
+        <v>70.52</v>
       </c>
       <c r="H6" t="n">
-        <v>88.25</v>
+        <v>97.5</v>
       </c>
       <c r="I6" t="n">
-        <v>92.06</v>
+        <v>97.5</v>
       </c>
       <c r="J6" t="n">
-        <v>90.54000000000001</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>90.15000000000001</v>
+        <v>96.91</v>
       </c>
       <c r="L6" t="n">
-        <v>85.88</v>
+        <v>98.16</v>
       </c>
       <c r="M6" t="n">
-        <v>90.68000000000001</v>
+        <v>97.56999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>82.8</v>
+        <v>97.77</v>
       </c>
       <c r="O6" t="n">
-        <v>84.90000000000001</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>84.77</v>
+        <v>97.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>83.39</v>
+        <v>97.5</v>
       </c>
       <c r="R6" t="n">
-        <v>94.55</v>
+        <v>97.31</v>
       </c>
       <c r="S6" t="n">
-        <v>90.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>33.62</v>
+        <v>23.24</v>
       </c>
       <c r="V6" t="n">
-        <v>83.06</v>
+        <v>98.42</v>
       </c>
     </row>
   </sheetData>

--- a/Kmeans_percentual.xlsx
+++ b/Kmeans_percentual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,95 +446,70 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>prazoMedioRecebimentoVendas</t>
+          <t>titulosEmAberto</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>titulosEmAberto</t>
+          <t>percentualRisco</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>valorSolicitado</t>
+          <t>totalAtivo</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>percentualRisco</t>
+          <t>totalPatrimonioLiquido</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ativoCirculante</t>
+          <t>endividamento</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>passivoCirculante</t>
+          <t>duplicatasAReceber</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>totalAtivo</t>
+          <t>estoque</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>totalPatrimonioLiquido</t>
+          <t>faturamentoBruto</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>endividamento</t>
+          <t>custos</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>duplicatasAReceber</t>
+          <t>capitalSocial</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>estoque</t>
+          <t>restricoes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>faturamentoBruto</t>
+          <t>empresa_MeEppMei</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>margemBruta</t>
+          <t>scorePontualidade</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>custos</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>capitalSocial</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>restricoes</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>empresa_MeEppMei</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>scorePontualidade</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>limiteEmpresaAnaliseCredito</t>
         </is>
@@ -545,67 +520,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>73.28</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>58.24</v>
+        <v>61.33</v>
       </c>
       <c r="D2" t="n">
-        <v>75.70999999999999</v>
+        <v>90.22</v>
       </c>
       <c r="E2" t="n">
-        <v>86.47</v>
+        <v>36.64</v>
       </c>
       <c r="F2" t="n">
-        <v>79.51000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="G2" t="n">
-        <v>74.66</v>
+        <v>83.98</v>
       </c>
       <c r="H2" t="n">
+        <v>86.93000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80.95999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82.86</v>
+      </c>
+      <c r="K2" t="n">
+        <v>84.44</v>
+      </c>
+      <c r="L2" t="n">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>94.48</v>
+      </c>
+      <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>67.95999999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>64.28</v>
-      </c>
       <c r="P2" t="n">
-        <v>64.28</v>
+        <v>33.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>71.95999999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>100</v>
-      </c>
-      <c r="U2" t="n">
-        <v>33.62</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
+        <v>85.55</v>
       </c>
     </row>
     <row r="3">
@@ -613,67 +573,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>71.18000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>21.47</v>
+        <v>58.24</v>
       </c>
       <c r="D3" t="n">
-        <v>68.22</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>66.45</v>
+        <v>74.66</v>
       </c>
       <c r="F3" t="n">
-        <v>91.33</v>
+        <v>60.8</v>
       </c>
       <c r="G3" t="n">
-        <v>36.64</v>
+        <v>65.53</v>
       </c>
       <c r="H3" t="n">
-        <v>95.54000000000001</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>97.18000000000001</v>
+        <v>65.73</v>
       </c>
       <c r="J3" t="n">
-        <v>96.72</v>
+        <v>65.86</v>
       </c>
       <c r="K3" t="n">
-        <v>96.59</v>
+        <v>61.65</v>
       </c>
       <c r="L3" t="n">
-        <v>93.43000000000001</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>97.18000000000001</v>
+        <v>63.76</v>
       </c>
       <c r="N3" t="n">
-        <v>90.09</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>90.73999999999999</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>90.15000000000001</v>
+        <v>33.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>91.66</v>
-      </c>
-      <c r="R3" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="V3" t="n">
-        <v>93.5</v>
+        <v>71.04000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -681,67 +626,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>80.43000000000001</v>
+        <v>74.39</v>
       </c>
       <c r="C4" t="n">
-        <v>61.33</v>
+        <v>21.47</v>
       </c>
       <c r="D4" t="n">
-        <v>77.22</v>
+        <v>69.86</v>
       </c>
       <c r="E4" t="n">
-        <v>90.22</v>
+        <v>36.64</v>
       </c>
       <c r="F4" t="n">
-        <v>94.29000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="G4" t="n">
-        <v>36.64</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>88.25</v>
+        <v>92.84</v>
       </c>
       <c r="I4" t="n">
-        <v>92.06</v>
+        <v>97.83</v>
       </c>
       <c r="J4" t="n">
-        <v>90.54000000000001</v>
+        <v>89.36</v>
       </c>
       <c r="K4" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="L4" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="N4" t="n">
         <v>90.15000000000001</v>
       </c>
-      <c r="L4" t="n">
-        <v>85.88</v>
-      </c>
-      <c r="M4" t="n">
-        <v>90.68000000000001</v>
-      </c>
-      <c r="N4" t="n">
-        <v>82.8</v>
-      </c>
       <c r="O4" t="n">
-        <v>84.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>84.77</v>
+        <v>20.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>83.39</v>
-      </c>
-      <c r="R4" t="n">
-        <v>94.55</v>
-      </c>
-      <c r="S4" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>33.62</v>
-      </c>
-      <c r="V4" t="n">
-        <v>83.06</v>
+        <v>88.97</v>
       </c>
     </row>
     <row r="5">
@@ -749,67 +679,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68.88</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>21.47</v>
+        <v>30.4</v>
       </c>
       <c r="D5" t="n">
-        <v>67.37</v>
+        <v>90.48</v>
       </c>
       <c r="E5" t="n">
+        <v>70.52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>97.95999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="H5" t="n">
+        <v>98.16</v>
+      </c>
+      <c r="I5" t="n">
+        <v>97.23999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>97.77</v>
+      </c>
+      <c r="K5" t="n">
+        <v>97.23999999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97.44</v>
+      </c>
+      <c r="N5" t="n">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>79.31999999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>90.81</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95.47</v>
-      </c>
-      <c r="J5" t="n">
-        <v>94.09</v>
-      </c>
-      <c r="K5" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>78.27</v>
-      </c>
-      <c r="M5" t="n">
-        <v>94.42</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>22.98</v>
-      </c>
       <c r="P5" t="n">
-        <v>0.39</v>
+        <v>23.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>66.91</v>
-      </c>
-      <c r="R5" t="n">
-        <v>95.54000000000001</v>
-      </c>
-      <c r="S5" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="T5" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="U5" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="V5" t="n">
-        <v>89.89</v>
+        <v>98.42</v>
       </c>
     </row>
     <row r="6">
@@ -817,67 +732,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>84.64</v>
+        <v>73.28</v>
       </c>
       <c r="C6" t="n">
-        <v>30.33</v>
+        <v>21.47</v>
       </c>
       <c r="D6" t="n">
-        <v>72.36</v>
+        <v>64.02</v>
       </c>
       <c r="E6" t="n">
-        <v>90.68000000000001</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>91</v>
+        <v>57.45</v>
       </c>
       <c r="G6" t="n">
-        <v>70.52</v>
+        <v>64.87</v>
       </c>
       <c r="H6" t="n">
-        <v>97.5</v>
+        <v>73.34</v>
       </c>
       <c r="I6" t="n">
-        <v>97.5</v>
+        <v>62.84</v>
       </c>
       <c r="J6" t="n">
-        <v>97.95999999999999</v>
+        <v>60.6</v>
       </c>
       <c r="K6" t="n">
-        <v>96.91</v>
+        <v>56.2</v>
       </c>
       <c r="L6" t="n">
-        <v>98.16</v>
+        <v>62.97</v>
       </c>
       <c r="M6" t="n">
-        <v>97.56999999999999</v>
+        <v>57.91</v>
       </c>
       <c r="N6" t="n">
-        <v>97.77</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>97.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="P6" t="n">
-        <v>97.44</v>
+        <v>20.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>97.31</v>
-      </c>
-      <c r="S6" t="n">
-        <v>100</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>23.24</v>
-      </c>
-      <c r="V6" t="n">
-        <v>98.42</v>
+        <v>61.06</v>
       </c>
     </row>
   </sheetData>

--- a/Kmeans_percentual.xlsx
+++ b/Kmeans_percentual.xlsx
@@ -520,52 +520,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80.43000000000001</v>
+        <v>71.18000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>61.33</v>
+        <v>58.24</v>
       </c>
       <c r="D2" t="n">
-        <v>90.22</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>36.64</v>
+        <v>74.66</v>
       </c>
       <c r="F2" t="n">
-        <v>84.7</v>
+        <v>60.8</v>
       </c>
       <c r="G2" t="n">
-        <v>83.98</v>
+        <v>65.53</v>
       </c>
       <c r="H2" t="n">
-        <v>86.93000000000001</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>80.95999999999999</v>
+        <v>65.73</v>
       </c>
       <c r="J2" t="n">
-        <v>82.86</v>
+        <v>65.86</v>
       </c>
       <c r="K2" t="n">
-        <v>84.44</v>
+        <v>61.65</v>
       </c>
       <c r="L2" t="n">
-        <v>84.04000000000001</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>94.48</v>
+        <v>63.76</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="P2" t="n">
         <v>33.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.55</v>
+        <v>71.04000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -573,52 +573,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>71.18000000000001</v>
+        <v>74.39</v>
       </c>
       <c r="C3" t="n">
-        <v>58.24</v>
+        <v>21.47</v>
       </c>
       <c r="D3" t="n">
-        <v>85.48999999999999</v>
+        <v>69.86</v>
       </c>
       <c r="E3" t="n">
-        <v>74.66</v>
+        <v>36.64</v>
       </c>
       <c r="F3" t="n">
-        <v>60.8</v>
+        <v>97.7</v>
       </c>
       <c r="G3" t="n">
-        <v>65.53</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>73.93000000000001</v>
+        <v>92.84</v>
       </c>
       <c r="I3" t="n">
-        <v>65.73</v>
+        <v>97.83</v>
       </c>
       <c r="J3" t="n">
-        <v>65.86</v>
+        <v>89.36</v>
       </c>
       <c r="K3" t="n">
-        <v>61.65</v>
+        <v>90.81</v>
       </c>
       <c r="L3" t="n">
-        <v>72.29000000000001</v>
+        <v>90.61</v>
       </c>
       <c r="M3" t="n">
-        <v>63.76</v>
+        <v>96.78</v>
       </c>
       <c r="N3" t="n">
         <v>90.15000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>68.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>33.62</v>
+        <v>20.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.04000000000001</v>
+        <v>88.97</v>
       </c>
     </row>
     <row r="4">
@@ -626,40 +626,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74.39</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>21.47</v>
+        <v>61.33</v>
       </c>
       <c r="D4" t="n">
-        <v>69.86</v>
+        <v>90.22</v>
       </c>
       <c r="E4" t="n">
         <v>36.64</v>
       </c>
       <c r="F4" t="n">
-        <v>97.7</v>
+        <v>84.7</v>
       </c>
       <c r="G4" t="n">
-        <v>97.18000000000001</v>
+        <v>83.98</v>
       </c>
       <c r="H4" t="n">
-        <v>92.84</v>
+        <v>86.93000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>97.83</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>89.36</v>
+        <v>82.86</v>
       </c>
       <c r="K4" t="n">
-        <v>90.81</v>
+        <v>84.44</v>
       </c>
       <c r="L4" t="n">
-        <v>90.61</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>96.78</v>
+        <v>94.48</v>
       </c>
       <c r="N4" t="n">
         <v>90.15000000000001</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>20.81</v>
+        <v>33.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.97</v>
+        <v>85.55</v>
       </c>
     </row>
     <row r="5">

--- a/Kmeans_percentual.xlsx
+++ b/Kmeans_percentual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,21 +496,6 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>restricoes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>empresa_MeEppMei</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>scorePontualidade</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
           <t>limiteEmpresaAnaliseCredito</t>
         </is>
       </c>
@@ -520,52 +505,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>71.18000000000001</v>
+        <v>74.39</v>
       </c>
       <c r="C2" t="n">
-        <v>58.24</v>
+        <v>85.69</v>
       </c>
       <c r="D2" t="n">
-        <v>85.48999999999999</v>
+        <v>90.48</v>
       </c>
       <c r="E2" t="n">
-        <v>74.66</v>
+        <v>40.64</v>
       </c>
       <c r="F2" t="n">
-        <v>60.8</v>
+        <v>88.51000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>65.53</v>
+        <v>88.51000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>73.93000000000001</v>
+        <v>88.05</v>
       </c>
       <c r="I2" t="n">
-        <v>65.73</v>
+        <v>83.91</v>
       </c>
       <c r="J2" t="n">
-        <v>65.86</v>
+        <v>87.39</v>
       </c>
       <c r="K2" t="n">
-        <v>61.65</v>
+        <v>87.72</v>
       </c>
       <c r="L2" t="n">
-        <v>72.29000000000001</v>
+        <v>86.87</v>
       </c>
       <c r="M2" t="n">
-        <v>63.76</v>
+        <v>94.55</v>
       </c>
       <c r="N2" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>33.62</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>71.04000000000001</v>
+        <v>85.69</v>
       </c>
     </row>
     <row r="3">
@@ -573,52 +549,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74.39</v>
+        <v>68.88</v>
       </c>
       <c r="C3" t="n">
-        <v>21.47</v>
+        <v>21.34</v>
       </c>
       <c r="D3" t="n">
-        <v>69.86</v>
+        <v>62.44</v>
       </c>
       <c r="E3" t="n">
-        <v>36.64</v>
+        <v>53.91</v>
       </c>
       <c r="F3" t="n">
-        <v>97.7</v>
+        <v>96.19</v>
       </c>
       <c r="G3" t="n">
-        <v>97.18000000000001</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>92.84</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>97.83</v>
+        <v>97.05</v>
       </c>
       <c r="J3" t="n">
-        <v>89.36</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>90.81</v>
+        <v>90.22</v>
       </c>
       <c r="L3" t="n">
-        <v>90.61</v>
+        <v>90.28</v>
       </c>
       <c r="M3" t="n">
-        <v>96.78</v>
+        <v>96.39</v>
       </c>
       <c r="N3" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>88.97</v>
+        <v>93.63</v>
       </c>
     </row>
     <row r="4">
@@ -626,52 +593,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>80.43000000000001</v>
+        <v>83.72</v>
       </c>
       <c r="C4" t="n">
-        <v>61.33</v>
+        <v>43.86</v>
       </c>
       <c r="D4" t="n">
-        <v>90.22</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>36.64</v>
+        <v>33.62</v>
       </c>
       <c r="F4" t="n">
-        <v>84.7</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>83.98</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>86.93000000000001</v>
+        <v>85.69</v>
       </c>
       <c r="I4" t="n">
-        <v>80.95999999999999</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>82.86</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>84.44</v>
+        <v>84.64</v>
       </c>
       <c r="L4" t="n">
-        <v>84.04000000000001</v>
+        <v>85.16</v>
       </c>
       <c r="M4" t="n">
-        <v>94.48</v>
+        <v>93.3</v>
       </c>
       <c r="N4" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>33.62</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>85.55</v>
+        <v>86.08</v>
       </c>
     </row>
     <row r="5">
@@ -679,52 +637,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>85.29000000000001</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4</v>
+        <v>56.27</v>
       </c>
       <c r="D5" t="n">
-        <v>90.48</v>
+        <v>85.95</v>
       </c>
       <c r="E5" t="n">
-        <v>70.52</v>
+        <v>89.56</v>
       </c>
       <c r="F5" t="n">
-        <v>97.95999999999999</v>
+        <v>72.36</v>
       </c>
       <c r="G5" t="n">
-        <v>96.78</v>
+        <v>67.5</v>
       </c>
       <c r="H5" t="n">
-        <v>98.16</v>
+        <v>82.47</v>
       </c>
       <c r="I5" t="n">
-        <v>97.23999999999999</v>
+        <v>69.47</v>
       </c>
       <c r="J5" t="n">
-        <v>97.77</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>97.23999999999999</v>
+        <v>75.64</v>
       </c>
       <c r="L5" t="n">
-        <v>97.5</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>97.44</v>
+        <v>94.16</v>
       </c>
       <c r="N5" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>23.24</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>98.42</v>
+        <v>78.92</v>
       </c>
     </row>
     <row r="6">
@@ -732,52 +681,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>73.28</v>
+        <v>87.72</v>
       </c>
       <c r="C6" t="n">
-        <v>21.47</v>
+        <v>21.21</v>
       </c>
       <c r="D6" t="n">
-        <v>64.02</v>
+        <v>62.38</v>
       </c>
       <c r="E6" t="n">
-        <v>79.31999999999999</v>
+        <v>70.91</v>
       </c>
       <c r="F6" t="n">
-        <v>57.45</v>
+        <v>99.8</v>
       </c>
       <c r="G6" t="n">
-        <v>64.87</v>
+        <v>99.28</v>
       </c>
       <c r="H6" t="n">
-        <v>73.34</v>
+        <v>99.67</v>
       </c>
       <c r="I6" t="n">
-        <v>62.84</v>
+        <v>99.8</v>
       </c>
       <c r="J6" t="n">
-        <v>60.6</v>
+        <v>99.8</v>
       </c>
       <c r="K6" t="n">
-        <v>56.2</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>62.97</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>57.91</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="O6" t="n">
-        <v>100</v>
-      </c>
-      <c r="P6" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>61.06</v>
+        <v>99.73999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Kmeans_percentual.xlsx
+++ b/Kmeans_percentual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,55 +446,100 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>percentualProtestos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prazoMedioRecebimentoVendas</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>titulosEmAberto</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>percentualRisco</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ativoCirculante</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>passivoCirculante</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>totalAtivo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>totalPatrimonioLiquido</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>endividamento</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>duplicatasAReceber</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>estoque</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>faturamentoBruto</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>margemBruta</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>custos</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>anoFundacao</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>capitalSocial</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>restricoes</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>empresa_MeEppMei</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>scorePontualidade</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>limiteEmpresaAnaliseCredito</t>
         </is>
@@ -505,43 +550,70 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>74.39</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>85.69</v>
+        <v>61.46</v>
       </c>
       <c r="D2" t="n">
-        <v>90.48</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>40.64</v>
+        <v>77.22</v>
       </c>
       <c r="F2" t="n">
+        <v>90.22</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="H2" t="n">
+        <v>83.91</v>
+      </c>
+      <c r="I2" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="J2" t="n">
+        <v>87.59</v>
+      </c>
+      <c r="K2" t="n">
         <v>88.51000000000001</v>
       </c>
-      <c r="G2" t="n">
-        <v>88.51000000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>88.05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>83.91</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>80.37</v>
+      </c>
+      <c r="M2" t="n">
         <v>87.39</v>
       </c>
-      <c r="K2" t="n">
-        <v>87.72</v>
-      </c>
-      <c r="L2" t="n">
-        <v>86.87</v>
-      </c>
-      <c r="M2" t="n">
-        <v>94.55</v>
-      </c>
       <c r="N2" t="n">
-        <v>85.69</v>
+        <v>77.02</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="P2" t="n">
+        <v>81.29000000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>78.45999999999999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="S2" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>33.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>80.89</v>
       </c>
     </row>
     <row r="3">
@@ -549,43 +621,70 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>68.88</v>
+        <v>69.67</v>
       </c>
       <c r="C3" t="n">
-        <v>21.34</v>
+        <v>21.47</v>
       </c>
       <c r="D3" t="n">
-        <v>62.44</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.91</v>
+        <v>67.37</v>
       </c>
       <c r="F3" t="n">
-        <v>96.19</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>96.26000000000001</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>89.09999999999999</v>
+        <v>95.34</v>
       </c>
       <c r="I3" t="n">
-        <v>97.05</v>
+        <v>97.11</v>
       </c>
       <c r="J3" t="n">
-        <v>88.90000000000001</v>
+        <v>96.45</v>
       </c>
       <c r="K3" t="n">
-        <v>90.22</v>
+        <v>95.73</v>
       </c>
       <c r="L3" t="n">
-        <v>90.28</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>96.39</v>
+        <v>96.78</v>
       </c>
       <c r="N3" t="n">
-        <v>93.63</v>
+        <v>93.04000000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>91.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>91.14</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>92.97</v>
+      </c>
+      <c r="R3" t="n">
+        <v>45.31</v>
+      </c>
+      <c r="S3" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="T3" t="n">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>100</v>
+      </c>
+      <c r="V3" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="W3" t="n">
+        <v>93.17</v>
       </c>
     </row>
     <row r="4">
@@ -593,43 +692,70 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>83.72</v>
+        <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>43.86</v>
+        <v>21.47</v>
       </c>
       <c r="D4" t="n">
-        <v>90.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>33.62</v>
+        <v>68.22</v>
       </c>
       <c r="F4" t="n">
-        <v>83.31999999999999</v>
+        <v>69.34</v>
       </c>
       <c r="G4" t="n">
-        <v>84.04000000000001</v>
+        <v>36.64</v>
       </c>
       <c r="H4" t="n">
-        <v>85.69</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>82.01000000000001</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>83.65000000000001</v>
+        <v>97.44</v>
       </c>
       <c r="K4" t="n">
-        <v>84.64</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>85.16</v>
+        <v>95.47</v>
       </c>
       <c r="M4" t="n">
-        <v>93.3</v>
+        <v>97.7</v>
       </c>
       <c r="N4" t="n">
-        <v>86.08</v>
+        <v>94.16</v>
+      </c>
+      <c r="O4" t="n">
+        <v>93.43000000000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>93.17</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>94.22</v>
+      </c>
+      <c r="R4" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="S4" t="n">
+        <v>96.84999999999999</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="V4" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="W4" t="n">
+        <v>94.55</v>
       </c>
     </row>
     <row r="5">
@@ -637,43 +763,70 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>79.70999999999999</v>
+        <v>84.64</v>
       </c>
       <c r="C5" t="n">
-        <v>56.27</v>
+        <v>30.47</v>
       </c>
       <c r="D5" t="n">
-        <v>85.95</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>89.56</v>
+        <v>72.36</v>
       </c>
       <c r="F5" t="n">
-        <v>72.36</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>67.5</v>
+        <v>70.52</v>
       </c>
       <c r="H5" t="n">
-        <v>82.47</v>
+        <v>97.44</v>
       </c>
       <c r="I5" t="n">
-        <v>69.47</v>
+        <v>97.44</v>
       </c>
       <c r="J5" t="n">
-        <v>69.40000000000001</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>75.64</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>74.79000000000001</v>
+        <v>98.03</v>
       </c>
       <c r="M5" t="n">
-        <v>94.16</v>
+        <v>97.5</v>
       </c>
       <c r="N5" t="n">
-        <v>78.92</v>
+        <v>97.64</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97.23999999999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>97.31</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="S5" t="n">
+        <v>97.31</v>
+      </c>
+      <c r="T5" t="n">
+        <v>100</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="W5" t="n">
+        <v>98.36</v>
       </c>
     </row>
     <row r="6">
@@ -681,43 +834,70 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87.72</v>
+        <v>73.28</v>
       </c>
       <c r="C6" t="n">
-        <v>21.21</v>
+        <v>58.24</v>
       </c>
       <c r="D6" t="n">
-        <v>62.38</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>70.91</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>99.8</v>
+        <v>86.34</v>
       </c>
       <c r="G6" t="n">
-        <v>99.28</v>
+        <v>74.66</v>
       </c>
       <c r="H6" t="n">
-        <v>99.67</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>99.8</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>99.8</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>99.73999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="L6" t="n">
-        <v>99.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>99.54000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>99.73999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="V6" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
